--- a/yes-genie-testautomation-GenieDataCreation/src/main/resources/demogs.xlsx
+++ b/yes-genie-testautomation-GenieDataCreation/src/main/resources/demogs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3986" uniqueCount="247">
   <si>
     <t xml:space="preserve">row_key</t>
   </si>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">SAHARANPUR</t>
   </si>
   <si>
-    <t xml:space="preserve">SAHARANPUR,UTTAR PRADESH</t>
+    <t xml:space="preserve">SAHARANPUR,UP</t>
   </si>
   <si>
     <t xml:space="preserve">IN</t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">W/O RAHUL SADANA 25-B KULTAR SINGH NAGAR NEAR DAV PUBLIC SCHOOL</t>
   </si>
   <si>
-    <t xml:space="preserve">UTTAR PRADESH</t>
+    <t xml:space="preserve">UP</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -505,27 +505,18 @@
     <t xml:space="preserve">996264849_C_996264849</t>
   </si>
   <si>
-    <t xml:space="preserve">UP</t>
-  </si>
-  <si>
     <t xml:space="preserve">996264849_C_996264850</t>
   </si>
   <si>
     <t xml:space="preserve">W/O RAHUL SADANA 25-C KULTAR SINGH NAGAR NEAR DAV PUBLIC SCHOOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Uttar Pradesh</t>
-  </si>
-  <si>
     <t xml:space="preserve">601_M</t>
   </si>
   <si>
     <t xml:space="preserve">PANKAJ GUPTA</t>
   </si>
   <si>
-    <t xml:space="preserve">SAHARANPUR,Uttar Pradesh</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROHTAK</t>
   </si>
   <si>
@@ -716,6 +707,60 @@
   </si>
   <si>
     <t xml:space="preserve">43453_C_4345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kusum Lata Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABALPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABALPUR ,MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-A KULTAR SINGH NAGAR NEAR DAV PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABALPUR, MADHYA PRADESH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kusumgupta@yahoo.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JABALPUR,MADHYA PRADESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1341527_C_1341528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-B KULTAR SINGH NAGAR NEAR DAV PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1341527_C_13415279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/O RAHUL GUPTA 25-C KULTAR SINGH NAGAR NEAR DAV PUBLIC SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -768,7 +813,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +868,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3715A"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -862,7 +913,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1107,6 +1158,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1140,7 +1231,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF3715A"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1185,90 +1276,90 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DL37"/>
+  <dimension ref="A1:DL40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DD20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:DL37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="66.5510204081633"/>
-    <col collapsed="false" hidden="false" max="22" min="18" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="39.8214285714286"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="56" min="55" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="49.2704081632653"/>
-    <col collapsed="false" hidden="false" max="65" min="60" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="70" min="67" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="81" min="75" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="97" min="90" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="112" min="99" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="116" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="64.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.4540816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="64.9285714285714"/>
+    <col collapsed="false" hidden="false" max="22" min="18" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="56" min="55" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="65" min="60" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="70" min="67" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="81" min="75" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="87" min="87" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="88" min="88" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="89" min="89" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="97" min="90" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="98" min="98" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="112" min="99" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="113" min="113" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="114" min="114" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="115" min="115" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="116" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2003,7 +2094,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>124</v>
@@ -2323,7 +2414,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>996264849</v>
@@ -2344,7 +2435,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>122</v>
@@ -2353,7 +2444,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>124</v>
@@ -2673,7 +2764,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B5" s="13" t="n">
         <v>601</v>
@@ -2682,7 +2773,7 @@
         <v>601</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>118</v>
@@ -2703,7 +2794,7 @@
         <v>126</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>124</v>
@@ -2724,7 +2815,7 @@
         <v>125</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>126</v>
@@ -2772,13 +2863,13 @@
         <v>130</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI5" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK5" s="14" t="s">
         <v>135</v>
@@ -2787,7 +2878,7 @@
         <v>130</v>
       </c>
       <c r="AM5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN5" s="6" t="s">
         <v>136</v>
@@ -2802,10 +2893,10 @@
         <v>128</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT5" s="14" t="s">
         <v>128</v>
@@ -3009,7 +3100,7 @@
         <v>157</v>
       </c>
       <c r="DI5" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ5" s="14" t="s">
         <v>130</v>
@@ -3023,7 +3114,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="13" t="n">
         <v>601</v>
@@ -3032,7 +3123,7 @@
         <v>601</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>118</v>
@@ -3074,7 +3165,7 @@
         <v>125</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>126</v>
@@ -3122,13 +3213,13 @@
         <v>130</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI6" s="14" t="s">
         <v>128</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK6" s="14" t="s">
         <v>135</v>
@@ -3137,7 +3228,7 @@
         <v>130</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN6" s="6" t="s">
         <v>136</v>
@@ -3152,10 +3243,10 @@
         <v>128</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT6" s="14" t="s">
         <v>128</v>
@@ -3359,7 +3450,7 @@
         <v>157</v>
       </c>
       <c r="DI6" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ6" s="14" t="s">
         <v>130</v>
@@ -3373,7 +3464,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7" s="21" t="n">
         <v>998003452</v>
@@ -3382,7 +3473,7 @@
         <v>998003452</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>118</v>
@@ -3397,13 +3488,13 @@
         <v>121</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>124</v>
@@ -3424,13 +3515,13 @@
         <v>125</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S7" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>124</v>
@@ -3457,7 +3548,7 @@
         <v>130</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AD7" s="21" t="s">
         <v>130</v>
@@ -3472,13 +3563,13 @@
         <v>130</v>
       </c>
       <c r="AH7" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AJ7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK7" s="22" t="s">
         <v>135</v>
@@ -3487,7 +3578,7 @@
         <v>130</v>
       </c>
       <c r="AM7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN7" s="6" t="s">
         <v>136</v>
@@ -3499,13 +3590,13 @@
         <v>137</v>
       </c>
       <c r="AQ7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AR7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS7" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AT7" s="22" t="s">
         <v>128</v>
@@ -3514,7 +3605,7 @@
         <v>6080112225</v>
       </c>
       <c r="AV7" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AW7" s="23" t="n">
         <v>919158706602</v>
@@ -3568,7 +3659,7 @@
         <v>130</v>
       </c>
       <c r="BN7" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BO7" s="22" t="s">
         <v>147</v>
@@ -3709,7 +3800,7 @@
         <v>157</v>
       </c>
       <c r="DI7" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ7" s="22" t="s">
         <v>130</v>
@@ -3723,7 +3814,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" s="21" t="n">
         <v>998003452</v>
@@ -3732,7 +3823,7 @@
         <v>998003452</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>118</v>
@@ -3747,13 +3838,13 @@
         <v>125</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L8" s="22" t="s">
         <v>124</v>
@@ -3774,13 +3865,13 @@
         <v>125</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S8" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>124</v>
@@ -3807,7 +3898,7 @@
         <v>130</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AD8" s="21" t="s">
         <v>130</v>
@@ -3822,13 +3913,13 @@
         <v>130</v>
       </c>
       <c r="AH8" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AJ8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK8" s="22" t="s">
         <v>135</v>
@@ -3837,7 +3928,7 @@
         <v>130</v>
       </c>
       <c r="AM8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN8" s="6" t="s">
         <v>136</v>
@@ -3849,13 +3940,13 @@
         <v>137</v>
       </c>
       <c r="AQ8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AR8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS8" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AT8" s="22" t="s">
         <v>128</v>
@@ -3864,7 +3955,7 @@
         <v>6080112225</v>
       </c>
       <c r="AV8" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AW8" s="23" t="n">
         <v>919158706602</v>
@@ -3918,7 +4009,7 @@
         <v>130</v>
       </c>
       <c r="BN8" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BO8" s="22" t="s">
         <v>147</v>
@@ -4059,7 +4150,7 @@
         <v>157</v>
       </c>
       <c r="DI8" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ8" s="22" t="s">
         <v>130</v>
@@ -4073,7 +4164,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B9" s="21" t="n">
         <v>998003452</v>
@@ -4082,7 +4173,7 @@
         <v>998003451</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>118</v>
@@ -4094,16 +4185,16 @@
         <v>120</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L9" s="22" t="s">
         <v>124</v>
@@ -4124,13 +4215,13 @@
         <v>125</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S9" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>124</v>
@@ -4157,7 +4248,7 @@
         <v>130</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AD9" s="21" t="s">
         <v>130</v>
@@ -4172,13 +4263,13 @@
         <v>130</v>
       </c>
       <c r="AH9" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AJ9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AK9" s="22" t="s">
         <v>135</v>
@@ -4187,7 +4278,7 @@
         <v>130</v>
       </c>
       <c r="AM9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN9" s="6" t="s">
         <v>136</v>
@@ -4199,13 +4290,13 @@
         <v>137</v>
       </c>
       <c r="AQ9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AR9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AS9" s="22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AT9" s="22" t="s">
         <v>128</v>
@@ -4214,7 +4305,7 @@
         <v>6080112225</v>
       </c>
       <c r="AV9" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AW9" s="23" t="n">
         <v>919158706602</v>
@@ -4268,7 +4359,7 @@
         <v>130</v>
       </c>
       <c r="BN9" s="22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BO9" s="22" t="s">
         <v>147</v>
@@ -4409,7 +4500,7 @@
         <v>157</v>
       </c>
       <c r="DI9" s="22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ9" s="22" t="s">
         <v>130</v>
@@ -4423,7 +4514,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B10" s="26" t="n">
         <v>1002</v>
@@ -4432,7 +4523,7 @@
         <v>1002</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>118</v>
@@ -4447,13 +4538,13 @@
         <v>125</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L10" s="27" t="s">
         <v>124</v>
@@ -4474,13 +4565,13 @@
         <v>125</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U10" s="27" t="s">
         <v>124</v>
@@ -4507,7 +4598,7 @@
         <v>130</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AD10" s="26" t="s">
         <v>159</v>
@@ -4522,7 +4613,7 @@
         <v>130</v>
       </c>
       <c r="AH10" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI10" s="27" t="s">
         <v>128</v>
@@ -4537,7 +4628,7 @@
         <v>130</v>
       </c>
       <c r="AM10" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN10" s="6" t="s">
         <v>136</v>
@@ -4555,7 +4646,7 @@
         <v>128</v>
       </c>
       <c r="AS10" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT10" s="27" t="s">
         <v>128</v>
@@ -4579,7 +4670,7 @@
         <v>0.33</v>
       </c>
       <c r="BA10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB10" s="26" t="n">
         <v>444</v>
@@ -4759,7 +4850,7 @@
         <v>157</v>
       </c>
       <c r="DI10" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ10" s="27" t="s">
         <v>130</v>
@@ -4773,7 +4864,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B11" s="26" t="n">
         <v>1002</v>
@@ -4782,7 +4873,7 @@
         <v>1002</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>118</v>
@@ -4797,13 +4888,13 @@
         <v>125</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L11" s="27" t="s">
         <v>124</v>
@@ -4824,13 +4915,13 @@
         <v>125</v>
       </c>
       <c r="R11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U11" s="27" t="s">
         <v>124</v>
@@ -4857,7 +4948,7 @@
         <v>130</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AD11" s="26" t="s">
         <v>159</v>
@@ -4872,7 +4963,7 @@
         <v>130</v>
       </c>
       <c r="AH11" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI11" s="27" t="s">
         <v>128</v>
@@ -4887,7 +4978,7 @@
         <v>130</v>
       </c>
       <c r="AM11" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN11" s="6" t="s">
         <v>136</v>
@@ -4905,7 +4996,7 @@
         <v>128</v>
       </c>
       <c r="AS11" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT11" s="27" t="s">
         <v>128</v>
@@ -4929,7 +5020,7 @@
         <v>0.33</v>
       </c>
       <c r="BA11" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB11" s="26" t="n">
         <v>444</v>
@@ -5109,7 +5200,7 @@
         <v>157</v>
       </c>
       <c r="DI11" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ11" s="27" t="s">
         <v>130</v>
@@ -5123,7 +5214,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="26" t="n">
         <v>1002</v>
@@ -5132,7 +5223,7 @@
         <v>1003</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>118</v>
@@ -5147,13 +5238,13 @@
         <v>125</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>124</v>
@@ -5174,13 +5265,13 @@
         <v>125</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U12" s="27" t="s">
         <v>124</v>
@@ -5207,7 +5298,7 @@
         <v>130</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD12" s="26" t="s">
         <v>159</v>
@@ -5222,7 +5313,7 @@
         <v>130</v>
       </c>
       <c r="AH12" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI12" s="27" t="s">
         <v>128</v>
@@ -5237,7 +5328,7 @@
         <v>130</v>
       </c>
       <c r="AM12" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN12" s="6" t="s">
         <v>136</v>
@@ -5255,7 +5346,7 @@
         <v>128</v>
       </c>
       <c r="AS12" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT12" s="27" t="s">
         <v>128</v>
@@ -5279,7 +5370,7 @@
         <v>0.33</v>
       </c>
       <c r="BA12" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB12" s="26" t="n">
         <v>444</v>
@@ -5459,7 +5550,7 @@
         <v>157</v>
       </c>
       <c r="DI12" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ12" s="27" t="s">
         <v>130</v>
@@ -5473,7 +5564,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>1002</v>
@@ -5482,7 +5573,7 @@
         <v>1004</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>118</v>
@@ -5497,13 +5588,13 @@
         <v>125</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L13" s="27" t="s">
         <v>124</v>
@@ -5524,13 +5615,13 @@
         <v>125</v>
       </c>
       <c r="R13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U13" s="27" t="s">
         <v>124</v>
@@ -5557,7 +5648,7 @@
         <v>130</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD13" s="26" t="s">
         <v>159</v>
@@ -5572,7 +5663,7 @@
         <v>130</v>
       </c>
       <c r="AH13" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI13" s="27" t="s">
         <v>128</v>
@@ -5587,7 +5678,7 @@
         <v>130</v>
       </c>
       <c r="AM13" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN13" s="6" t="s">
         <v>136</v>
@@ -5605,7 +5696,7 @@
         <v>128</v>
       </c>
       <c r="AS13" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT13" s="27" t="s">
         <v>128</v>
@@ -5629,7 +5720,7 @@
         <v>0.33</v>
       </c>
       <c r="BA13" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB13" s="26" t="n">
         <v>444</v>
@@ -5809,7 +5900,7 @@
         <v>157</v>
       </c>
       <c r="DI13" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ13" s="27" t="s">
         <v>130</v>
@@ -5823,7 +5914,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B14" s="26" t="n">
         <v>1002</v>
@@ -5832,7 +5923,7 @@
         <v>1005</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>118</v>
@@ -5847,13 +5938,13 @@
         <v>125</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L14" s="27" t="s">
         <v>124</v>
@@ -5874,13 +5965,13 @@
         <v>125</v>
       </c>
       <c r="R14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U14" s="27" t="s">
         <v>124</v>
@@ -5907,7 +5998,7 @@
         <v>130</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AD14" s="26" t="s">
         <v>159</v>
@@ -5922,7 +6013,7 @@
         <v>130</v>
       </c>
       <c r="AH14" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI14" s="27" t="s">
         <v>128</v>
@@ -5937,7 +6028,7 @@
         <v>130</v>
       </c>
       <c r="AM14" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN14" s="6" t="s">
         <v>136</v>
@@ -5955,7 +6046,7 @@
         <v>128</v>
       </c>
       <c r="AS14" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT14" s="27" t="s">
         <v>128</v>
@@ -5979,7 +6070,7 @@
         <v>0.33</v>
       </c>
       <c r="BA14" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB14" s="26" t="n">
         <v>444</v>
@@ -6159,7 +6250,7 @@
         <v>157</v>
       </c>
       <c r="DI14" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ14" s="27" t="s">
         <v>130</v>
@@ -6173,7 +6264,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B15" s="26" t="n">
         <v>1002</v>
@@ -6182,7 +6273,7 @@
         <v>1006</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>118</v>
@@ -6197,13 +6288,13 @@
         <v>125</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L15" s="27" t="s">
         <v>124</v>
@@ -6224,13 +6315,13 @@
         <v>125</v>
       </c>
       <c r="R15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U15" s="27" t="s">
         <v>124</v>
@@ -6257,7 +6348,7 @@
         <v>130</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AD15" s="26" t="s">
         <v>159</v>
@@ -6272,7 +6363,7 @@
         <v>130</v>
       </c>
       <c r="AH15" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI15" s="27" t="s">
         <v>128</v>
@@ -6287,7 +6378,7 @@
         <v>130</v>
       </c>
       <c r="AM15" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN15" s="6" t="s">
         <v>136</v>
@@ -6305,7 +6396,7 @@
         <v>128</v>
       </c>
       <c r="AS15" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT15" s="27" t="s">
         <v>128</v>
@@ -6329,7 +6420,7 @@
         <v>0.33</v>
       </c>
       <c r="BA15" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB15" s="26" t="n">
         <v>444</v>
@@ -6509,7 +6600,7 @@
         <v>157</v>
       </c>
       <c r="DI15" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ15" s="27" t="s">
         <v>130</v>
@@ -6523,7 +6614,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>1002</v>
@@ -6532,7 +6623,7 @@
         <v>1007</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>118</v>
@@ -6547,13 +6638,13 @@
         <v>125</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L16" s="27" t="s">
         <v>124</v>
@@ -6574,13 +6665,13 @@
         <v>125</v>
       </c>
       <c r="R16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U16" s="27" t="s">
         <v>124</v>
@@ -6607,7 +6698,7 @@
         <v>130</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AD16" s="26" t="s">
         <v>159</v>
@@ -6622,7 +6713,7 @@
         <v>130</v>
       </c>
       <c r="AH16" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI16" s="27" t="s">
         <v>128</v>
@@ -6637,7 +6728,7 @@
         <v>130</v>
       </c>
       <c r="AM16" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN16" s="6" t="s">
         <v>136</v>
@@ -6655,7 +6746,7 @@
         <v>128</v>
       </c>
       <c r="AS16" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT16" s="27" t="s">
         <v>128</v>
@@ -6679,7 +6770,7 @@
         <v>0.33</v>
       </c>
       <c r="BA16" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB16" s="26" t="n">
         <v>444</v>
@@ -6859,7 +6950,7 @@
         <v>157</v>
       </c>
       <c r="DI16" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ16" s="27" t="s">
         <v>130</v>
@@ -6873,7 +6964,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B17" s="26" t="n">
         <v>1002</v>
@@ -6882,7 +6973,7 @@
         <v>1008</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E17" s="27" t="s">
         <v>118</v>
@@ -6897,13 +6988,13 @@
         <v>125</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L17" s="27" t="s">
         <v>124</v>
@@ -6924,13 +7015,13 @@
         <v>125</v>
       </c>
       <c r="R17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U17" s="27" t="s">
         <v>124</v>
@@ -6957,7 +7048,7 @@
         <v>130</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AD17" s="26" t="s">
         <v>159</v>
@@ -6972,7 +7063,7 @@
         <v>130</v>
       </c>
       <c r="AH17" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI17" s="27" t="s">
         <v>128</v>
@@ -6987,7 +7078,7 @@
         <v>130</v>
       </c>
       <c r="AM17" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN17" s="6" t="s">
         <v>136</v>
@@ -7005,7 +7096,7 @@
         <v>128</v>
       </c>
       <c r="AS17" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT17" s="27" t="s">
         <v>128</v>
@@ -7029,7 +7120,7 @@
         <v>0.33</v>
       </c>
       <c r="BA17" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB17" s="26" t="n">
         <v>444</v>
@@ -7209,7 +7300,7 @@
         <v>157</v>
       </c>
       <c r="DI17" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ17" s="27" t="s">
         <v>130</v>
@@ -7223,7 +7314,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="26" t="n">
         <v>1002</v>
@@ -7232,7 +7323,7 @@
         <v>1009</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>118</v>
@@ -7247,13 +7338,13 @@
         <v>125</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L18" s="27" t="s">
         <v>124</v>
@@ -7274,13 +7365,13 @@
         <v>125</v>
       </c>
       <c r="R18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U18" s="27" t="s">
         <v>124</v>
@@ -7307,7 +7398,7 @@
         <v>130</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AD18" s="26" t="s">
         <v>159</v>
@@ -7322,7 +7413,7 @@
         <v>130</v>
       </c>
       <c r="AH18" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI18" s="27" t="s">
         <v>128</v>
@@ -7337,7 +7428,7 @@
         <v>130</v>
       </c>
       <c r="AM18" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN18" s="6" t="s">
         <v>136</v>
@@ -7355,7 +7446,7 @@
         <v>128</v>
       </c>
       <c r="AS18" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT18" s="27" t="s">
         <v>128</v>
@@ -7379,7 +7470,7 @@
         <v>0.33</v>
       </c>
       <c r="BA18" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB18" s="26" t="n">
         <v>444</v>
@@ -7559,7 +7650,7 @@
         <v>157</v>
       </c>
       <c r="DI18" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ18" s="27" t="s">
         <v>130</v>
@@ -7573,7 +7664,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B19" s="26" t="n">
         <v>1002</v>
@@ -7582,7 +7673,7 @@
         <v>1010</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>118</v>
@@ -7597,13 +7688,13 @@
         <v>125</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L19" s="27" t="s">
         <v>124</v>
@@ -7624,13 +7715,13 @@
         <v>125</v>
       </c>
       <c r="R19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U19" s="27" t="s">
         <v>124</v>
@@ -7657,7 +7748,7 @@
         <v>130</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AD19" s="26" t="s">
         <v>159</v>
@@ -7672,7 +7763,7 @@
         <v>130</v>
       </c>
       <c r="AH19" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI19" s="27" t="s">
         <v>128</v>
@@ -7687,7 +7778,7 @@
         <v>130</v>
       </c>
       <c r="AM19" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>136</v>
@@ -7705,7 +7796,7 @@
         <v>128</v>
       </c>
       <c r="AS19" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT19" s="27" t="s">
         <v>128</v>
@@ -7729,7 +7820,7 @@
         <v>0.33</v>
       </c>
       <c r="BA19" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB19" s="26" t="n">
         <v>444</v>
@@ -7909,7 +8000,7 @@
         <v>157</v>
       </c>
       <c r="DI19" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ19" s="27" t="s">
         <v>130</v>
@@ -7923,7 +8014,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B20" s="26" t="n">
         <v>1002</v>
@@ -7932,7 +8023,7 @@
         <v>1011</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>118</v>
@@ -7947,13 +8038,13 @@
         <v>125</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L20" s="27" t="s">
         <v>124</v>
@@ -7974,13 +8065,13 @@
         <v>125</v>
       </c>
       <c r="R20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U20" s="27" t="s">
         <v>124</v>
@@ -8007,7 +8098,7 @@
         <v>130</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD20" s="26" t="s">
         <v>159</v>
@@ -8022,7 +8113,7 @@
         <v>130</v>
       </c>
       <c r="AH20" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI20" s="27" t="s">
         <v>128</v>
@@ -8037,7 +8128,7 @@
         <v>130</v>
       </c>
       <c r="AM20" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN20" s="6" t="s">
         <v>136</v>
@@ -8055,7 +8146,7 @@
         <v>128</v>
       </c>
       <c r="AS20" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT20" s="27" t="s">
         <v>128</v>
@@ -8079,7 +8170,7 @@
         <v>0.33</v>
       </c>
       <c r="BA20" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB20" s="26" t="n">
         <v>444</v>
@@ -8259,7 +8350,7 @@
         <v>157</v>
       </c>
       <c r="DI20" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ20" s="27" t="s">
         <v>130</v>
@@ -8273,7 +8364,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B21" s="26" t="n">
         <v>1002</v>
@@ -8282,7 +8373,7 @@
         <v>1012</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>118</v>
@@ -8297,13 +8388,13 @@
         <v>125</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>124</v>
@@ -8324,13 +8415,13 @@
         <v>125</v>
       </c>
       <c r="R21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U21" s="27" t="s">
         <v>124</v>
@@ -8357,7 +8448,7 @@
         <v>130</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AD21" s="26" t="s">
         <v>159</v>
@@ -8372,7 +8463,7 @@
         <v>130</v>
       </c>
       <c r="AH21" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI21" s="27" t="s">
         <v>128</v>
@@ -8387,7 +8478,7 @@
         <v>130</v>
       </c>
       <c r="AM21" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN21" s="6" t="s">
         <v>136</v>
@@ -8405,7 +8496,7 @@
         <v>128</v>
       </c>
       <c r="AS21" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT21" s="27" t="s">
         <v>128</v>
@@ -8429,7 +8520,7 @@
         <v>0.33</v>
       </c>
       <c r="BA21" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB21" s="26" t="n">
         <v>444</v>
@@ -8609,7 +8700,7 @@
         <v>157</v>
       </c>
       <c r="DI21" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ21" s="27" t="s">
         <v>130</v>
@@ -8623,7 +8714,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="26" t="n">
         <v>1002</v>
@@ -8632,7 +8723,7 @@
         <v>1013</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>118</v>
@@ -8647,13 +8738,13 @@
         <v>125</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L22" s="27" t="s">
         <v>124</v>
@@ -8674,13 +8765,13 @@
         <v>125</v>
       </c>
       <c r="R22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U22" s="27" t="s">
         <v>124</v>
@@ -8707,7 +8798,7 @@
         <v>130</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AD22" s="26" t="s">
         <v>159</v>
@@ -8722,7 +8813,7 @@
         <v>130</v>
       </c>
       <c r="AH22" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI22" s="27" t="s">
         <v>128</v>
@@ -8737,7 +8828,7 @@
         <v>130</v>
       </c>
       <c r="AM22" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN22" s="6" t="s">
         <v>136</v>
@@ -8755,7 +8846,7 @@
         <v>128</v>
       </c>
       <c r="AS22" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT22" s="27" t="s">
         <v>128</v>
@@ -8779,7 +8870,7 @@
         <v>0.33</v>
       </c>
       <c r="BA22" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB22" s="26" t="n">
         <v>444</v>
@@ -8959,7 +9050,7 @@
         <v>157</v>
       </c>
       <c r="DI22" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ22" s="27" t="s">
         <v>130</v>
@@ -8973,7 +9064,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="26" t="n">
         <v>1002</v>
@@ -8982,7 +9073,7 @@
         <v>1014</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>118</v>
@@ -8997,13 +9088,13 @@
         <v>125</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L23" s="27" t="s">
         <v>124</v>
@@ -9024,13 +9115,13 @@
         <v>125</v>
       </c>
       <c r="R23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U23" s="27" t="s">
         <v>124</v>
@@ -9057,7 +9148,7 @@
         <v>130</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AD23" s="26" t="s">
         <v>159</v>
@@ -9072,7 +9163,7 @@
         <v>130</v>
       </c>
       <c r="AH23" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI23" s="27" t="s">
         <v>128</v>
@@ -9087,7 +9178,7 @@
         <v>130</v>
       </c>
       <c r="AM23" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN23" s="6" t="s">
         <v>136</v>
@@ -9105,7 +9196,7 @@
         <v>128</v>
       </c>
       <c r="AS23" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT23" s="27" t="s">
         <v>128</v>
@@ -9129,7 +9220,7 @@
         <v>0.33</v>
       </c>
       <c r="BA23" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB23" s="26" t="n">
         <v>444</v>
@@ -9309,7 +9400,7 @@
         <v>157</v>
       </c>
       <c r="DI23" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ23" s="27" t="s">
         <v>130</v>
@@ -9323,7 +9414,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B24" s="26" t="n">
         <v>1002</v>
@@ -9332,7 +9423,7 @@
         <v>1015</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>118</v>
@@ -9347,13 +9438,13 @@
         <v>125</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L24" s="27" t="s">
         <v>124</v>
@@ -9374,13 +9465,13 @@
         <v>125</v>
       </c>
       <c r="R24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U24" s="27" t="s">
         <v>124</v>
@@ -9407,7 +9498,7 @@
         <v>130</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD24" s="26" t="s">
         <v>159</v>
@@ -9422,7 +9513,7 @@
         <v>130</v>
       </c>
       <c r="AH24" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI24" s="27" t="s">
         <v>128</v>
@@ -9437,7 +9528,7 @@
         <v>130</v>
       </c>
       <c r="AM24" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN24" s="6" t="s">
         <v>136</v>
@@ -9455,7 +9546,7 @@
         <v>128</v>
       </c>
       <c r="AS24" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT24" s="27" t="s">
         <v>128</v>
@@ -9479,7 +9570,7 @@
         <v>0.33</v>
       </c>
       <c r="BA24" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB24" s="26" t="n">
         <v>444</v>
@@ -9659,7 +9750,7 @@
         <v>157</v>
       </c>
       <c r="DI24" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ24" s="27" t="s">
         <v>130</v>
@@ -9673,7 +9764,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B25" s="26" t="n">
         <v>1002</v>
@@ -9682,7 +9773,7 @@
         <v>1016</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>118</v>
@@ -9697,13 +9788,13 @@
         <v>125</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L25" s="27" t="s">
         <v>124</v>
@@ -9724,13 +9815,13 @@
         <v>125</v>
       </c>
       <c r="R25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U25" s="27" t="s">
         <v>124</v>
@@ -9757,7 +9848,7 @@
         <v>130</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AD25" s="26" t="s">
         <v>159</v>
@@ -9772,7 +9863,7 @@
         <v>130</v>
       </c>
       <c r="AH25" s="27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AI25" s="27" t="s">
         <v>128</v>
@@ -9787,7 +9878,7 @@
         <v>130</v>
       </c>
       <c r="AM25" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AN25" s="6" t="s">
         <v>136</v>
@@ -9805,7 +9896,7 @@
         <v>128</v>
       </c>
       <c r="AS25" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AT25" s="27" t="s">
         <v>128</v>
@@ -9829,7 +9920,7 @@
         <v>0.33</v>
       </c>
       <c r="BA25" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="BB25" s="26" t="n">
         <v>444</v>
@@ -10009,7 +10100,7 @@
         <v>157</v>
       </c>
       <c r="DI25" s="27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DJ25" s="27" t="s">
         <v>130</v>
@@ -10023,7 +10114,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B26" s="32" t="n">
         <v>43450</v>
@@ -10032,7 +10123,7 @@
         <v>43450</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E26" s="34" t="s">
         <v>118</v>
@@ -10155,19 +10246,19 @@
         <v>128</v>
       </c>
       <c r="AS26" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AT26" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AU26" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AV26" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AW26" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AX26" s="34" t="n">
         <v>1244242427</v>
@@ -10373,7 +10464,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B27" s="32" t="n">
         <v>43450</v>
@@ -10382,7 +10473,7 @@
         <v>43450</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>118</v>
@@ -10505,19 +10596,19 @@
         <v>128</v>
       </c>
       <c r="AS27" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AT27" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AU27" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AV27" s="34" t="s">
         <v>128</v>
       </c>
       <c r="AW27" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AX27" s="34" t="n">
         <v>1244242427</v>
@@ -10723,7 +10814,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B28" s="32" t="n">
         <v>43451</v>
@@ -10732,7 +10823,7 @@
         <v>43451</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E28" s="43" t="s">
         <v>118</v>
@@ -10855,7 +10946,7 @@
         <v>128</v>
       </c>
       <c r="AS28" s="45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT28" s="43" t="s">
         <v>128</v>
@@ -11059,7 +11150,7 @@
         <v>157</v>
       </c>
       <c r="DI28" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ28" s="43" t="s">
         <v>130</v>
@@ -11073,7 +11164,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="41" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B29" s="32" t="n">
         <v>43451</v>
@@ -11082,7 +11173,7 @@
         <v>43451</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E29" s="43" t="s">
         <v>118</v>
@@ -11205,7 +11296,7 @@
         <v>128</v>
       </c>
       <c r="AS29" s="45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT29" s="43" t="s">
         <v>128</v>
@@ -11409,7 +11500,7 @@
         <v>157</v>
       </c>
       <c r="DI29" s="43" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ29" s="43" t="s">
         <v>130</v>
@@ -11423,7 +11514,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B30" s="32" t="n">
         <v>43452</v>
@@ -11432,7 +11523,7 @@
         <v>43452</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>118</v>
@@ -11555,7 +11646,7 @@
         <v>128</v>
       </c>
       <c r="AS30" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT30" s="52" t="s">
         <v>128</v>
@@ -11759,7 +11850,7 @@
         <v>157</v>
       </c>
       <c r="DI30" s="52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ30" s="52" t="s">
         <v>130</v>
@@ -11773,7 +11864,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B31" s="32" t="n">
         <v>43452</v>
@@ -11782,7 +11873,7 @@
         <v>43452</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>118</v>
@@ -11905,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="AS31" s="54" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT31" s="52" t="s">
         <v>128</v>
@@ -12109,7 +12200,7 @@
         <v>157</v>
       </c>
       <c r="DI31" s="52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ31" s="52" t="s">
         <v>130</v>
@@ -12123,7 +12214,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B32" s="32" t="n">
         <v>43454</v>
@@ -12132,7 +12223,7 @@
         <v>43454</v>
       </c>
       <c r="D32" s="59" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>118</v>
@@ -12255,7 +12346,7 @@
         <v>128</v>
       </c>
       <c r="AS32" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT32" s="5" t="s">
         <v>128</v>
@@ -12459,7 +12550,7 @@
         <v>157</v>
       </c>
       <c r="DI32" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ32" s="5" t="s">
         <v>130</v>
@@ -12473,7 +12564,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33" s="32" t="n">
         <v>43454</v>
@@ -12482,7 +12573,7 @@
         <v>4346</v>
       </c>
       <c r="D33" s="59" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>118</v>
@@ -12605,7 +12696,7 @@
         <v>128</v>
       </c>
       <c r="AS33" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT33" s="5" t="s">
         <v>128</v>
@@ -12809,7 +12900,7 @@
         <v>157</v>
       </c>
       <c r="DI33" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ33" s="5" t="s">
         <v>130</v>
@@ -12823,7 +12914,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B34" s="32" t="n">
         <v>43454</v>
@@ -12832,7 +12923,7 @@
         <v>4347</v>
       </c>
       <c r="D34" s="59" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>118</v>
@@ -12955,7 +13046,7 @@
         <v>128</v>
       </c>
       <c r="AS34" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT34" s="5" t="s">
         <v>128</v>
@@ -13159,7 +13250,7 @@
         <v>157</v>
       </c>
       <c r="DI34" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ34" s="5" t="s">
         <v>130</v>
@@ -13173,7 +13264,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B35" s="32" t="n">
         <v>43454</v>
@@ -13182,7 +13273,7 @@
         <v>4348</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>118</v>
@@ -13305,7 +13396,7 @@
         <v>128</v>
       </c>
       <c r="AS35" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT35" s="5" t="s">
         <v>128</v>
@@ -13509,7 +13600,7 @@
         <v>157</v>
       </c>
       <c r="DI35" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="DJ35" s="5" t="s">
         <v>130</v>
@@ -13523,7 +13614,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B36" s="32" t="n">
         <v>43453</v>
@@ -13532,7 +13623,7 @@
         <v>43453</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>118</v>
@@ -13655,7 +13746,7 @@
         <v>128</v>
       </c>
       <c r="AS36" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT36" s="5" t="s">
         <v>128</v>
@@ -13667,7 +13758,7 @@
         <v>128</v>
       </c>
       <c r="AW36" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AX36" s="5" t="n">
         <v>1244242427</v>
@@ -13873,7 +13964,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B37" s="32" t="n">
         <v>43453</v>
@@ -13882,7 +13973,7 @@
         <v>4345</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>118</v>
@@ -14005,7 +14096,7 @@
         <v>128</v>
       </c>
       <c r="AS37" s="60" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AT37" s="5" t="s">
         <v>128</v>
@@ -14017,7 +14108,7 @@
         <v>128</v>
       </c>
       <c r="AW37" s="37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AX37" s="5" t="n">
         <v>1244242427</v>
@@ -14218,6 +14309,1056 @@
         <v>130</v>
       </c>
       <c r="DL37" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="C38" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="N38" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="O38" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q38" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="R38" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="S38" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="T38" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="U38" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="V38" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="W38" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="X38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y38" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z38" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA38" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC38" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD38" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE38" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH38" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK38" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM38" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN38" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP38" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS38" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU38" s="61" t="n">
+        <v>917123456789</v>
+      </c>
+      <c r="AV38" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW38" s="66" t="n">
+        <v>919158706602</v>
+      </c>
+      <c r="AX38" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AY38" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AZ38" s="67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BA38" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB38" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE38" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF38" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG38" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH38" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI38" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ38" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK38" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN38" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO38" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT38" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV38" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW38" s="63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BX38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY38" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB38" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD38" s="63" t="n">
+        <v>4188029</v>
+      </c>
+      <c r="CE38" s="63" t="n">
+        <v>2985009</v>
+      </c>
+      <c r="CF38" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG38" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI38" s="63" t="n">
+        <v>1466889</v>
+      </c>
+      <c r="CJ38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK38" s="63" t="n">
+        <v>996264850</v>
+      </c>
+      <c r="CL38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN38" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CP38" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CQ38" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="CR38" s="69" t="n">
+        <v>43160</v>
+      </c>
+      <c r="CS38" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT38" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="CU38" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="CV38" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CW38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CY38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ38" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DB38" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD38" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH38" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI38" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="DJ38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK38" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DL38" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="C39" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M39" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="N39" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="O39" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P39" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q39" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="R39" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="S39" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="T39" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="U39" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="V39" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="W39" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="X39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y39" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z39" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA39" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC39" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD39" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE39" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH39" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK39" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM39" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN39" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP39" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS39" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU39" s="61" t="n">
+        <v>917123456789</v>
+      </c>
+      <c r="AV39" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW39" s="66" t="n">
+        <v>919158706602</v>
+      </c>
+      <c r="AX39" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AY39" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AZ39" s="67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BA39" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB39" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE39" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF39" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG39" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH39" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ39" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK39" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN39" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO39" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT39" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV39" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW39" s="63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BX39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY39" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB39" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD39" s="63" t="n">
+        <v>4188029</v>
+      </c>
+      <c r="CE39" s="63" t="n">
+        <v>2985009</v>
+      </c>
+      <c r="CF39" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG39" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI39" s="63" t="n">
+        <v>1466889</v>
+      </c>
+      <c r="CJ39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK39" s="63" t="n">
+        <v>996264850</v>
+      </c>
+      <c r="CL39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN39" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CP39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CQ39" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="CR39" s="69" t="n">
+        <v>43160</v>
+      </c>
+      <c r="CS39" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT39" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="CU39" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="CV39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CW39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CY39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DB39" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD39" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH39" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI39" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="DJ39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK39" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DL39" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="C40" s="62" t="n">
+        <v>1341527</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" s="70" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="N40" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P40" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q40" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="R40" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="S40" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="T40" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="U40" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="V40" s="63" t="n">
+        <v>247001</v>
+      </c>
+      <c r="W40" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="X40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y40" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z40" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA40" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC40" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD40" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE40" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH40" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK40" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM40" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN40" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP40" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS40" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="AT40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU40" s="61" t="n">
+        <v>917123456789</v>
+      </c>
+      <c r="AV40" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW40" s="66" t="n">
+        <v>919158706602</v>
+      </c>
+      <c r="AX40" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AY40" s="63" t="n">
+        <v>1244242427</v>
+      </c>
+      <c r="AZ40" s="67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BA40" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB40" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE40" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF40" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG40" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="BH40" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI40" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ40" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK40" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="BL40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN40" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO40" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BS40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT40" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV40" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW40" s="63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BX40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="BY40" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CB40" s="63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CD40" s="63" t="n">
+        <v>4188029</v>
+      </c>
+      <c r="CE40" s="63" t="n">
+        <v>2985009</v>
+      </c>
+      <c r="CF40" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG40" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI40" s="63" t="n">
+        <v>1466889</v>
+      </c>
+      <c r="CJ40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CK40" s="63" t="n">
+        <v>996264850</v>
+      </c>
+      <c r="CL40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CM40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CN40" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CP40" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CQ40" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="CR40" s="69" t="n">
+        <v>43160</v>
+      </c>
+      <c r="CS40" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="CT40" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="CU40" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="CV40" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="CW40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CX40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CY40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="CZ40" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DB40" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DD40" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DG40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DH40" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="DI40" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="DJ40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DK40" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="DL40" s="63" t="s">
         <v>153</v>
       </c>
     </row>
